--- a/medicine/Psychotrope/Solaris_(cépage)/Solaris_(cépage).xlsx
+++ b/medicine/Psychotrope/Solaris_(cépage)/Solaris_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Solaris_(c%C3%A9page)</t>
+          <t>Solaris_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La  solaris  est un cépage de cuve allemand de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Solaris_(c%C3%A9page)</t>
+          <t>Solaris_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage a été obtenu par Norbert Becker dans l'institut Staatliches Weinbauinstitut Freiburg à Fribourg-en-Brisgau. L'origine génétique est vérifiée et c'est un croisement des cépages Merzling × (Sapéravi Severny × Muscat ottonel) réalisé en 1975. Le cépage est autorisé dans de nombreux Länder en Allemagne. Il est également autorisé en Belgique.
 Le nom du cépage est un hommage au soleil.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Solaris_(c%C3%A9page)</t>
+          <t>Solaris_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles adultes, à 3 lobes, vert foncé
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Solaris_(c%C3%A9page)</t>
+          <t>Solaris_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est précoce: 5 jours avant le chasselas.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Solaris_(c%C3%A9page)</t>
+          <t>Solaris_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont moyennes et les baies sont de taille moyenne. Le cépage est très résistant au mildiou et à l'oïdium.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Solaris_(c%C3%A9page)</t>
+          <t>Solaris_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La  solaris est connu sous le nom de FR 240-75
 </t>
